--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">{{data.product_name}}</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Sub total :</t>
   </si>
   <si>
-    <t xml:space="preserve">{{data.sub_total}}</t>
+    <t xml:space="preserve">{{data.sub_total}} VNĐ</t>
   </si>
   <si>
     <t xml:space="preserve">Payment info :</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Tax :</t>
   </si>
   <si>
-    <t xml:space="preserve">{{data.tax}}</t>
+    <t xml:space="preserve">{{data.tax}} %</t>
   </si>
   <si>
     <t xml:space="preserve">Account # :</t>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{data.total}}</t>
   </si>
   <si>
     <t xml:space="preserve">Terms &amp; Conditions</t>
@@ -547,9 +544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
+      <xdr:colOff>784440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,13 +555,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="16678" t="5337" r="8044" b="34993"/>
+        <a:srcRect l="16680" t="5337" r="8044" b="34993"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="192240" y="187200"/>
-          <a:ext cx="10511280" cy="2581200"/>
+          <a:ext cx="10510920" cy="2580840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,9 +582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>780120</xdr:colOff>
+      <xdr:colOff>779760</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,13 +593,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="15665" t="24498" r="16975" b="43880"/>
+        <a:srcRect l="15667" t="24498" r="16977" b="43880"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="187920" y="13053960"/>
-          <a:ext cx="10510920" cy="1357200"/>
+          <a:ext cx="10510560" cy="1356840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -635,7 +632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1290960" y="1032840"/>
-          <a:ext cx="519840" cy="519840"/>
+          <a:ext cx="519480" cy="519480"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst>
@@ -753,9 +750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -765,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1967400" y="1107000"/>
-          <a:ext cx="3971160" cy="457560"/>
+          <a:ext cx="3970800" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,9 +814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
+      <xdr:colOff>412920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -829,7 +826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7058520" y="1238760"/>
-          <a:ext cx="3273480" cy="609480"/>
+          <a:ext cx="3273120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,9 +878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -893,7 +890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6874560" y="1865880"/>
-          <a:ext cx="3273480" cy="533160"/>
+          <a:ext cx="3273120" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,9 +961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -976,7 +973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="448920" y="1765080"/>
-          <a:ext cx="3045600" cy="781200"/>
+          <a:ext cx="3045240" cy="780840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>682200</xdr:colOff>
+      <xdr:colOff>681840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1063,7 +1060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1622880" y="3119760"/>
-          <a:ext cx="1662840" cy="1662840"/>
+          <a:ext cx="1662480" cy="1662480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,8 +1082,8 @@
   </sheetPr>
   <dimension ref="B1:N106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R53" activeCellId="0" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1800,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L67" s="23"/>
       <c r="M67" s="24"/>
@@ -1826,7 +1823,7 @@
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="6"/>
       <c r="C70" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
@@ -1836,7 +1833,7 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="6"/>
       <c r="C71" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
@@ -1917,7 +1914,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6"/>
       <c r="J77" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" s="31"/>
       <c r="L77" s="31"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t xml:space="preserve">{{data.product_name}}</t>
   </si>
@@ -34,10 +34,151 @@
     <t xml:space="preserve">Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Qty.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[0].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[0].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[0].is_price}}{{data.item[0].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[0].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[1].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[1].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[1].is_price}}{{data.item[1].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[1].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[2].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[2].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[2].is_price}}{{data.item[2].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[2].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[3].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[3].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[3].is_price}}{{data.item[3].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[3].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[4].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[4].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[4].is_price}}{{data.item[4].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[4].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[5].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[5].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[5].is_price}}{{data.item[5].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[5].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[6].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[6].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[6].is_price}}{{data.item[6].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[6].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[7].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[7].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[7].is_price}}{{data.item[7].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[7].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[8].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[8].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[8].is_price}}{{data.item[8].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[8].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[9].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[9].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[9].is_price}}{{data.item[9].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[9].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[10].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[10].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[10].is_price}}{{data.item[10].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[10].total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[11].display_order}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[11].product_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[11].is_price}}{{data.item[11].product_price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{data.item[11].total}}</t>
   </si>
   <si>
     <t xml:space="preserve">Thank you for your business</t>
@@ -95,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,13 +279,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -320,7 +466,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,7 +500,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -378,30 +524,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,19 +563,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,23 +583,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>784080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,7 +715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="192240" y="187200"/>
-          <a:ext cx="10510920" cy="2580840"/>
+          <a:ext cx="10510560" cy="2580480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,9 +736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
+      <xdr:colOff>779400</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -593,13 +747,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="15667" t="24498" r="16977" b="43880"/>
+        <a:srcRect l="15670" t="24498" r="16979" b="43880"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="187920" y="13053960"/>
-          <a:ext cx="10510560" cy="1356840"/>
+          <a:ext cx="10510200" cy="1356480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,9 +774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -632,7 +786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1290960" y="1032840"/>
-          <a:ext cx="519480" cy="519480"/>
+          <a:ext cx="519120" cy="519120"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst>
@@ -750,9 +904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -762,7 +916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1967400" y="1107000"/>
-          <a:ext cx="3970800" cy="457200"/>
+          <a:ext cx="3970440" cy="456840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,9 +968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>412920</xdr:colOff>
+      <xdr:colOff>412560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -826,7 +980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7058520" y="1238760"/>
-          <a:ext cx="3273120" cy="609120"/>
+          <a:ext cx="3272760" cy="608760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,9 +1032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -890,7 +1044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6874560" y="1865880"/>
-          <a:ext cx="3273120" cy="532800"/>
+          <a:ext cx="3272760" cy="532440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -961,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -973,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="448920" y="1765080"/>
-          <a:ext cx="3045240" cy="780840"/>
+          <a:ext cx="3044880" cy="780480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,15 +1192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:colOff>230760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>681840</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1059,8 +1213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1622880" y="3119760"/>
-          <a:ext cx="1662480" cy="1662480"/>
+          <a:off x="1208520" y="2972880"/>
+          <a:ext cx="2761920" cy="1809000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,8 +1236,8 @@
   </sheetPr>
   <dimension ref="B1:N106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R53" activeCellId="0" sqref="R53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1206,24 +1360,44 @@
       <c r="M19" s="2"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="6"/>
-      <c r="M20" s="2"/>
+      <c r="G20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
-      <c r="G23" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1268,12 +1442,24 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6"/>
       <c r="F27" s="9"/>
-      <c r="M27" s="2"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6"/>
-      <c r="M28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,11 +1498,9 @@
         <v>3</v>
       </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="12"/>
+      <c r="L33" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="7"/>
@@ -1332,23 +1516,31 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="I35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="17"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,26 +1551,34 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="6"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="I37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="17"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,26 +1589,34 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="I39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="17"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,26 +1627,34 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="6"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="I41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="17"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,26 +1665,34 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="6"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="17"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,26 +1703,34 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="6"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+      <c r="I45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="17"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,26 +1741,34 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="6"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
+      <c r="I47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="17"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,26 +1779,34 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="6"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
+      <c r="I49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="17"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,26 +1817,34 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="6"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+      <c r="I51" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="17"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,26 +1855,34 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="6"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+      <c r="I53" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="17"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,26 +1893,34 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="6"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="I55" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" s="17"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,56 +1931,64 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="6"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="C57" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="21"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="6"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="19"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="6"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,202 +2003,202 @@
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="6"/>
-      <c r="C62" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="24"/>
+      <c r="C62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="25"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="6"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="24"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="6"/>
-      <c r="C64" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64" s="23"/>
-      <c r="M64" s="24"/>
+      <c r="C64" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" s="25"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="6"/>
-      <c r="C65" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="24"/>
+      <c r="C65" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="27"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="6"/>
-      <c r="C66" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="24"/>
+      <c r="C66" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="6"/>
-      <c r="C67" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" s="23"/>
-      <c r="M67" s="24"/>
+      <c r="C67" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="25"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="6"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="6"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="24"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="6"/>
-      <c r="C70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="24"/>
+      <c r="C70" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="6"/>
-      <c r="C71" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="24"/>
+      <c r="C71" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="6"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="6"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="24"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="6"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="24"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="6"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="24"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="6"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="24"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6"/>
-      <c r="J77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="24"/>
+      <c r="J77" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,19 +2247,19 @@
       <c r="N86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="36"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2"/>
@@ -2074,72 +2354,59 @@
       <c r="M106" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="G23:M26"/>
+  <mergeCells count="55">
+    <mergeCell ref="G20:M28"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I33:K34"/>
     <mergeCell ref="L33:M34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="I35:K36"/>
     <mergeCell ref="L35:M36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I37:K38"/>
     <mergeCell ref="L37:M38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="I39:K40"/>
     <mergeCell ref="L39:M40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I41:K42"/>
     <mergeCell ref="L41:M42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="I43:K44"/>
     <mergeCell ref="L43:M44"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:K46"/>
     <mergeCell ref="L45:M46"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:H48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="I47:K48"/>
     <mergeCell ref="L47:M48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="I49:K50"/>
     <mergeCell ref="L49:M50"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:J52"/>
-    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I51:K52"/>
     <mergeCell ref="L51:M52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:H54"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="I53:K54"/>
     <mergeCell ref="L53:M54"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:H56"/>
-    <mergeCell ref="I55:J56"/>
-    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="I55:K56"/>
     <mergeCell ref="L55:M56"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:H58"/>
-    <mergeCell ref="I57:J58"/>
-    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="I57:K58"/>
     <mergeCell ref="L57:M58"/>
     <mergeCell ref="C71:H76"/>
     <mergeCell ref="J77:L77"/>
